--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Tshr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2008013333333333</v>
+        <v>0.06840833333333333</v>
       </c>
       <c r="H2">
-        <v>0.6024039999999999</v>
+        <v>0.205225</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.25410801246612</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.25410801246612</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>0.04590117678666666</v>
+        <v>0.04328626222499999</v>
       </c>
       <c r="R2">
-        <v>0.41311059108</v>
+        <v>0.3895763600249999</v>
       </c>
       <c r="S2">
-        <v>0.06730352972305123</v>
+        <v>0.03513155767360203</v>
       </c>
       <c r="T2">
-        <v>0.06730352972305123</v>
+        <v>0.03513155767360203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2008013333333333</v>
+        <v>0.06840833333333333</v>
       </c>
       <c r="H3">
-        <v>0.6024039999999999</v>
+        <v>0.205225</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.25410801246612</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.25410801246612</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>0.4379444282448888</v>
+        <v>0.1491974576638889</v>
       </c>
       <c r="R3">
-        <v>3.941499854204</v>
+        <v>1.342777118975</v>
       </c>
       <c r="S3">
-        <v>0.6421448840062525</v>
+        <v>0.1210901292753907</v>
       </c>
       <c r="T3">
-        <v>0.6421448840062525</v>
+        <v>0.1210901292753907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2008013333333333</v>
+        <v>0.06840833333333333</v>
       </c>
       <c r="H4">
-        <v>0.6024039999999999</v>
+        <v>0.205225</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.25410801246612</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.25410801246612</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>0.1633144686848889</v>
+        <v>0.09880874583611113</v>
       </c>
       <c r="R4">
-        <v>1.469830218164</v>
+        <v>0.8892787125250001</v>
       </c>
       <c r="S4">
-        <v>0.2394631459760435</v>
+        <v>0.08019415340030837</v>
       </c>
       <c r="T4">
-        <v>0.2394631459760435</v>
+        <v>0.08019415340030835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06840833333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.205225</v>
+      </c>
+      <c r="I5">
+        <v>0.25410801246612</v>
+      </c>
+      <c r="J5">
+        <v>0.25410801246612</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3186579999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.9559739999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.06962461334893082</v>
+      </c>
+      <c r="P5">
+        <v>0.06962461334893082</v>
+      </c>
+      <c r="Q5">
+        <v>0.02179886268333333</v>
+      </c>
+      <c r="R5">
+        <v>0.19618976415</v>
+      </c>
+      <c r="S5">
+        <v>0.0176921721168189</v>
+      </c>
+      <c r="T5">
+        <v>0.01769217211681889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0.2008013333333333</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>0.6024039999999999</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="I6">
+        <v>0.7458919875338801</v>
+      </c>
+      <c r="J6">
+        <v>0.74589198753388</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6327629999999999</v>
+      </c>
+      <c r="N6">
+        <v>1.898289</v>
+      </c>
+      <c r="O6">
+        <v>0.1382544270550543</v>
+      </c>
+      <c r="P6">
+        <v>0.1382544270550544</v>
+      </c>
+      <c r="Q6">
+        <v>0.1270596540839999</v>
+      </c>
+      <c r="R6">
+        <v>1.143536886756</v>
+      </c>
+      <c r="S6">
+        <v>0.1031228693814523</v>
+      </c>
+      <c r="T6">
+        <v>0.1031228693814523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="F7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.173517</v>
-      </c>
-      <c r="N5">
-        <v>0.520551</v>
-      </c>
-      <c r="O5">
-        <v>0.05108844029465279</v>
-      </c>
-      <c r="P5">
-        <v>0.05108844029465278</v>
-      </c>
-      <c r="Q5">
-        <v>0.03484244495599999</v>
-      </c>
-      <c r="R5">
-        <v>0.313582004604</v>
-      </c>
-      <c r="S5">
-        <v>0.05108844029465279</v>
-      </c>
-      <c r="T5">
-        <v>0.05108844029465278</v>
+      <c r="G7">
+        <v>0.2008013333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.6024039999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.7458919875338801</v>
+      </c>
+      <c r="J7">
+        <v>0.74589198753388</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N7">
+        <v>6.542951</v>
+      </c>
+      <c r="O7">
+        <v>0.4765301499162115</v>
+      </c>
+      <c r="P7">
+        <v>0.4765301499162115</v>
+      </c>
+      <c r="Q7">
+        <v>0.4379444282448888</v>
+      </c>
+      <c r="R7">
+        <v>3.941499854204</v>
+      </c>
+      <c r="S7">
+        <v>0.3554400206408208</v>
+      </c>
+      <c r="T7">
+        <v>0.3554400206408208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2008013333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.6024039999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.7458919875338801</v>
+      </c>
+      <c r="J8">
+        <v>0.74589198753388</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.444396333333334</v>
+      </c>
+      <c r="N8">
+        <v>4.333189000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3155908096798033</v>
+      </c>
+      <c r="P8">
+        <v>0.3155908096798033</v>
+      </c>
+      <c r="Q8">
+        <v>0.2900367095951111</v>
+      </c>
+      <c r="R8">
+        <v>2.610330386356</v>
+      </c>
+      <c r="S8">
+        <v>0.235396656279495</v>
+      </c>
+      <c r="T8">
+        <v>0.2353966562794949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2008013333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.6024039999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.7458919875338801</v>
+      </c>
+      <c r="J9">
+        <v>0.74589198753388</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3186579999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.9559739999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.06962461334893082</v>
+      </c>
+      <c r="P9">
+        <v>0.06962461334893082</v>
+      </c>
+      <c r="Q9">
+        <v>0.06398695127733331</v>
+      </c>
+      <c r="R9">
+        <v>0.5758825614959999</v>
+      </c>
+      <c r="S9">
+        <v>0.05193244123211192</v>
+      </c>
+      <c r="T9">
+        <v>0.05193244123211192</v>
       </c>
     </row>
   </sheetData>
